--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -685,7 +685,7 @@
         <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -697,22 +697,22 @@
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V2" t="n">
         <v>1.24</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC2" t="n">
         <v>8.4</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -757,7 +757,7 @@
         <v>90</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>980</v>
@@ -805,10 +805,10 @@
         <v>5.4</v>
       </c>
       <c r="G3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I3" t="n">
         <v>1.81</v>
@@ -826,19 +826,19 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -847,7 +847,7 @@
         <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,58 +856,58 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC3" t="n">
         <v>8.4</v>
       </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="H4" t="n">
         <v>1.83</v>
       </c>
       <c r="I4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
         <v>2.48</v>
@@ -982,7 +982,7 @@
         <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
         <v>11.5</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1102,7 +1102,7 @@
         <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q5" t="n">
         <v>2.06</v>
@@ -1114,10 +1114,10 @@
         <v>3.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1132,34 +1132,34 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
         <v>160</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
         <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="I6" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
         <v>3.3</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
         <v>3.35</v>
@@ -1366,7 +1366,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
         <v>3.6</v>
@@ -1444,7 +1444,7 @@
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AO7" t="n">
         <v>22</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G8" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1501,28 +1501,28 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R8" t="n">
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="T8" t="n">
         <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1561,16 +1561,16 @@
         <v>13</v>
       </c>
       <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK8" t="n">
         <v>20</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>17.5</v>
       </c>
       <c r="AL8" t="n">
         <v>36</v>
@@ -1582,7 +1582,7 @@
         <v>10.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -667,52 +667,52 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G2" t="n">
         <v>1.86</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>5.1</v>
       </c>
       <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.8</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.9</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.99</v>
       </c>
       <c r="V2" t="n">
         <v>1.24</v>
@@ -721,58 +721,58 @@
         <v>2.16</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC2" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>90</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -832,22 +832,22 @@
         <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z3" t="n">
         <v>10.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>16.5</v>
@@ -877,13 +877,13 @@
         <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>980</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -961,7 +961,7 @@
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1018,7 +1018,7 @@
         <v>44</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
         <v>28</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
@@ -1159,7 +1159,7 @@
         <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
         <v>160</v>
@@ -1222,7 +1222,7 @@
         <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
         <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I7" t="n">
         <v>2.42</v>
@@ -1378,13 +1378,13 @@
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
         <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
         <v>2.18</v>
@@ -1432,10 +1432,10 @@
         <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>22</v>
@@ -1486,10 +1486,10 @@
         <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
         <v>4.6</v>
@@ -1501,13 +1501,13 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
         <v>1.72</v>
@@ -1516,13 +1516,13 @@
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="T8" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
         <v>22</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
@@ -1555,22 +1555,22 @@
         <v>85</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK8" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>20</v>
       </c>
       <c r="AL8" t="n">
         <v>36</v>
@@ -1579,10 +1579,10 @@
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I2" t="n">
         <v>5.1</v>
@@ -694,31 +694,31 @@
         <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
         <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -754,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G3" t="n">
         <v>5.6</v>
@@ -832,7 +832,7 @@
         <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q3" t="n">
         <v>2.28</v>
@@ -844,7 +844,7 @@
         <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
         <v>1.88</v>
@@ -862,7 +862,7 @@
         <v>7.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -877,7 +877,7 @@
         <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -889,7 +889,7 @@
         <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
         <v>190</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -949,10 +949,10 @@
         <v>1.85</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.48</v>
@@ -979,10 +979,10 @@
         <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
@@ -1078,7 +1078,7 @@
         <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I5" t="n">
         <v>1.85</v>
@@ -1129,7 +1129,7 @@
         <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
@@ -1141,7 +1141,7 @@
         <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>10.5</v>
@@ -1150,7 +1150,7 @@
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
         <v>980</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
         <v>1.94</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
         <v>3.35</v>
       </c>
       <c r="H7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.42</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1384,7 +1384,7 @@
         <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
         <v>2.18</v>
@@ -1402,7 +1402,7 @@
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>36</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.71</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.73</v>
-      </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1501,22 +1501,22 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T8" t="n">
         <v>1.76</v>
@@ -1537,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1549,10 +1549,10 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>11.5</v>
@@ -1561,28 +1561,28 @@
         <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -670,19 +670,19 @@
         <v>1.86</v>
       </c>
       <c r="G2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>5.1</v>
       </c>
       <c r="J2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -718,7 +718,7 @@
         <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -805,7 +805,7 @@
         <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H3" t="n">
         <v>1.79</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
         <v>3.3</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>7.6</v>
@@ -871,7 +871,7 @@
         <v>16.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
@@ -889,7 +889,7 @@
         <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>190</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G4" t="n">
         <v>5.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.65</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>1.49</v>
       </c>
       <c r="P4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q4" t="n">
         <v>2.48</v>
@@ -982,7 +982,7 @@
         <v>2.28</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>11.5</v>
@@ -1021,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>60</v>
@@ -1081,7 +1081,7 @@
         <v>1.83</v>
       </c>
       <c r="I5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
@@ -1114,10 +1114,10 @@
         <v>3.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
@@ -1216,7 +1216,7 @@
         <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
@@ -1372,7 +1372,7 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
@@ -1384,7 +1384,7 @@
         <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
         <v>2.18</v>
@@ -1435,7 +1435,7 @@
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
         <v>22</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.7</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.71</v>
-      </c>
       <c r="H8" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I8" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,13 +1507,13 @@
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
         <v>1.74</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
         <v>2.8</v>
@@ -1522,7 +1522,7 @@
         <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1534,55 +1534,55 @@
         <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -697,7 +697,7 @@
         <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
         <v>2.12</v>
@@ -709,16 +709,16 @@
         <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
         <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -733,7 +733,7 @@
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -805,22 +805,22 @@
         <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -844,67 +844,67 @@
         <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
         <v>1.88</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
         <v>10</v>
       </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN3" t="n">
         <v>120</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>14.5</v>
@@ -949,7 +949,7 @@
         <v>1.86</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="5">
@@ -1096,7 +1096,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
         <v>1.35</v>
@@ -1222,7 +1222,7 @@
         <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1432,7 +1432,7 @@
         <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
         <v>34</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.69</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.7</v>
       </c>
       <c r="H8" t="n">
         <v>5.7</v>
@@ -1492,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1510,19 +1510,19 @@
         <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
         <v>60</v>
@@ -1543,19 +1543,19 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
         <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
@@ -1564,10 +1564,10 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>20</v>
@@ -1579,7 +1579,7 @@
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO8" t="n">
         <v>100</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -670,7 +670,7 @@
         <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -694,31 +694,31 @@
         <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
         <v>1.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -829,19 +829,19 @@
         <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
         <v>2.06</v>
@@ -859,7 +859,7 @@
         <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z3" t="n">
         <v>9.4</v>
@@ -874,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1003,10 +1003,10 @@
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
         <v>11.5</v>
@@ -1015,34 +1015,34 @@
         <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
         <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1096,13 +1096,13 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
         <v>2.06</v>
@@ -1114,7 +1114,7 @@
         <v>3.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
         <v>1.97</v>
@@ -1132,19 +1132,19 @@
         <v>8.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
         <v>980</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1159,7 +1159,7 @@
         <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="n">
         <v>160</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.3</v>
       </c>
-      <c r="G7" t="n">
-        <v>3.35</v>
-      </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1372,19 +1372,19 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
         <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
         <v>2.18</v>
@@ -1408,7 +1408,7 @@
         <v>36</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
@@ -1423,13 +1423,13 @@
         <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
         <v>65</v>
@@ -1438,16 +1438,16 @@
         <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G8" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H8" t="n">
         <v>5.7</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
         <v>1.46</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
         <v>23</v>
@@ -1546,31 +1546,31 @@
         <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL8" t="n">
         <v>38</v>
@@ -1579,7 +1579,7 @@
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO8" t="n">
         <v>100</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -679,10 +679,10 @@
         <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -721,13 +721,13 @@
         <v>2.16</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="n">
         <v>130</v>
@@ -832,10 +832,10 @@
         <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
         <v>1.28</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I4" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
         <v>1.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R4" t="n">
         <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T4" t="n">
         <v>2.28</v>
       </c>
       <c r="U4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y4" t="n">
         <v>6.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM4" t="n">
         <v>200</v>
       </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>250</v>
-      </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1087,7 +1087,7 @@
         <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
         <v>1.33</v>
@@ -1138,10 +1138,10 @@
         <v>980</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="G6" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>3.65</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
         <v>3.3</v>
@@ -1351,7 +1351,7 @@
         <v>2.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1366,16 +1366,16 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R7" t="n">
         <v>1.37</v>
@@ -1384,7 +1384,7 @@
         <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
         <v>2.18</v>
@@ -1405,7 +1405,7 @@
         <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
         <v>13</v>
@@ -1420,28 +1420,28 @@
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
         <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="n">
         <v>38</v>
@@ -1537,7 +1537,7 @@
         <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1558,7 +1558,7 @@
         <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -676,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -691,13 +691,13 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
         <v>2.14</v>
@@ -709,13 +709,13 @@
         <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U2" t="n">
         <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
         <v>2.16</v>
@@ -724,7 +724,7 @@
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z2" t="n">
         <v>36</v>
@@ -754,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
         <v>140</v>
@@ -826,28 +826,28 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
         <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
         <v>2.22</v>
@@ -859,19 +859,19 @@
         <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="Z3" t="n">
         <v>9.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB3" t="n">
         <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
@@ -886,22 +886,22 @@
         <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AK3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL3" t="n">
         <v>90</v>
       </c>
-      <c r="AL3" t="n">
-        <v>100</v>
-      </c>
       <c r="AM3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
         <v>120</v>
@@ -943,7 +943,7 @@
         <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I4" t="n">
         <v>1.85</v>
@@ -967,13 +967,13 @@
         <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
         <v>2.44</v>
       </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
         <v>4.9</v>
@@ -982,19 +982,19 @@
         <v>2.28</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
         <v>2.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z4" t="n">
         <v>9.199999999999999</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1102,16 +1102,16 @@
         <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
         <v>1.95</v>
@@ -1120,64 +1120,64 @@
         <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="Z5" t="n">
         <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="G6" t="n">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="I6" t="n">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="J6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.65</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
         <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -1360,7 +1360,7 @@
         <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1372,40 +1372,40 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
         <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
         <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="n">
         <v>13</v>
@@ -1414,28 +1414,28 @@
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
         <v>48</v>
@@ -1444,10 +1444,10 @@
         <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I8" t="n">
         <v>6.4</v>
@@ -1492,16 +1492,16 @@
         <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1510,55 +1510,55 @@
         <v>2.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
         <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y8" t="n">
         <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
         <v>80</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
@@ -1567,22 +1567,22 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
         <v>8.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -682,7 +682,7 @@
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -709,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>1.92</v>
@@ -748,13 +748,13 @@
         <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
         <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
@@ -772,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I3" t="n">
         <v>1.82</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -826,16 +826,16 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
         <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
@@ -847,19 +847,19 @@
         <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V3" t="n">
         <v>2.22</v>
       </c>
       <c r="W3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X3" t="n">
         <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z3" t="n">
         <v>9.4</v>
@@ -868,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
@@ -898,7 +898,7 @@
         <v>85</v>
       </c>
       <c r="AL3" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="n">
         <v>150</v>
@@ -907,7 +907,7 @@
         <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="J4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
@@ -961,10 +961,10 @@
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P4" t="n">
         <v>1.65</v>
@@ -979,16 +979,16 @@
         <v>4.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
         <v>9.800000000000001</v>
@@ -997,10 +997,10 @@
         <v>6.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB4" t="n">
         <v>15</v>
@@ -1012,16 +1012,16 @@
         <v>10.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG4" t="n">
         <v>24</v>
       </c>
-      <c r="AF4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>23</v>
-      </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>55</v>
@@ -1030,13 +1030,13 @@
         <v>180</v>
       </c>
       <c r="AK4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
         <v>170</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G5" t="n">
         <v>5.3</v>
       </c>
       <c r="H5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.8</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.82</v>
-      </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.4</v>
@@ -1099,13 +1099,13 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
         <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
         <v>1.34</v>
@@ -1114,22 +1114,22 @@
         <v>3.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W5" t="n">
         <v>1.23</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z5" t="n">
         <v>10.5</v>
@@ -1141,7 +1141,7 @@
         <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
         <v>9.800000000000001</v>
@@ -1168,7 +1168,7 @@
         <v>75</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
         <v>130</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G6" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="H6" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J6" t="n">
         <v>3.55</v>
@@ -1231,49 +1231,49 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="W6" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
@@ -1291,25 +1291,25 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN6" t="n">
         <v>32</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>29</v>
       </c>
       <c r="AO6" t="n">
         <v>28</v>
@@ -1360,7 +1360,7 @@
         <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1378,7 +1378,7 @@
         <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
         <v>3.6</v>
@@ -1387,7 +1387,7 @@
         <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
         <v>1.7</v>
@@ -1396,7 +1396,7 @@
         <v>1.43</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
         <v>10.5</v>
@@ -1408,7 +1408,7 @@
         <v>32</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
@@ -1420,10 +1420,10 @@
         <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
@@ -1435,7 +1435,7 @@
         <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
         <v>48</v>
@@ -1483,13 +1483,13 @@
         <v>1.67</v>
       </c>
       <c r="H8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
@@ -1519,7 +1519,7 @@
         <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
         <v>2.04</v>
@@ -1528,7 +1528,7 @@
         <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
@@ -1552,7 +1552,7 @@
         <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
         <v>10.5</v>
@@ -1564,10 +1564,10 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK8" t="n">
         <v>20</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -679,10 +679,10 @@
         <v>5.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -697,7 +697,7 @@
         <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
         <v>2.14</v>
@@ -754,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
         <v>140</v>
@@ -811,13 +811,13 @@
         <v>1.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.46</v>
@@ -829,13 +829,13 @@
         <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
@@ -847,7 +847,7 @@
         <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V3" t="n">
         <v>2.22</v>
@@ -895,13 +895,13 @@
         <v>150</v>
       </c>
       <c r="AK3" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL3" t="n">
         <v>95</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN3" t="n">
         <v>120</v>
@@ -952,7 +952,7 @@
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
@@ -964,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
         <v>1.65</v>
@@ -1075,7 +1075,7 @@
         <v>5.2</v>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
         <v>1.79</v>
@@ -1099,10 +1099,10 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
         <v>2.04</v>
@@ -1117,7 +1117,7 @@
         <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
         <v>2.24</v>
@@ -1138,7 +1138,7 @@
         <v>18.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G6" t="n">
         <v>2.96</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="n">
         <v>3.55</v>
@@ -1225,7 +1225,7 @@
         <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1234,10 +1234,10 @@
         <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
@@ -1246,25 +1246,25 @@
         <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>17.5</v>
@@ -1285,16 +1285,16 @@
         <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
         <v>46</v>
@@ -1309,10 +1309,10 @@
         <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1372,10 +1372,10 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>1.37</v>
@@ -1402,7 +1402,7 @@
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>32</v>
@@ -1447,7 +1447,7 @@
         <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.65</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.67</v>
-      </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.33</v>
@@ -1525,10 +1525,10 @@
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
@@ -1543,7 +1543,7 @@
         <v>170</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
         <v>9.800000000000001</v>
@@ -1558,7 +1558,7 @@
         <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
@@ -1573,7 +1573,7 @@
         <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -697,13 +697,13 @@
         <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q2" t="n">
         <v>2.14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
         <v>4</v>
@@ -748,7 +748,7 @@
         <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>22</v>
@@ -868,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
@@ -991,7 +991,7 @@
         <v>1.19</v>
       </c>
       <c r="X4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y4" t="n">
         <v>6.6</v>
@@ -1003,7 +1003,7 @@
         <v>18</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
@@ -1042,7 +1042,7 @@
         <v>170</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="5">
@@ -1093,16 +1093,16 @@
         <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
         <v>2.04</v>
@@ -1111,10 +1111,10 @@
         <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
         <v>1.97</v>
@@ -1126,7 +1126,7 @@
         <v>1.23</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
         <v>8.199999999999999</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G6" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J6" t="n">
         <v>3.55</v>
@@ -1249,7 +1249,7 @@
         <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1366,7 +1366,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1381,7 +1381,7 @@
         <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
         <v>1.79</v>
@@ -1423,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.64</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.65</v>
       </c>
       <c r="H8" t="n">
         <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
         <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.33</v>
@@ -1507,19 +1507,19 @@
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
         <v>1.79</v>
       </c>
       <c r="R8" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
         <v>2.04</v>
@@ -1531,31 +1531,31 @@
         <v>2.52</v>
       </c>
       <c r="X8" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
         <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG8" t="n">
         <v>9.800000000000001</v>
@@ -1564,25 +1564,25 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -697,7 +697,7 @@
         <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
         <v>2.14</v>
@@ -712,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V2" t="n">
         <v>1.24</v>
@@ -808,7 +808,7 @@
         <v>5.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I3" t="n">
         <v>1.81</v>
@@ -853,7 +853,7 @@
         <v>2.22</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
         <v>11.5</v>
@@ -967,7 +967,7 @@
         <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
         <v>2.44</v>
@@ -1078,10 +1078,10 @@
         <v>5.4</v>
       </c>
       <c r="H5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.79</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
@@ -1102,7 +1102,7 @@
         <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
         <v>2.04</v>
@@ -1114,19 +1114,19 @@
         <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
         <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.199999999999999</v>
@@ -1150,10 +1150,10 @@
         <v>19.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>22</v>
@@ -1162,7 +1162,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK5" t="n">
         <v>75</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
         <v>2.94</v>
@@ -1216,7 +1216,7 @@
         <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J6" t="n">
         <v>3.55</v>
@@ -1231,13 +1231,13 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
@@ -1249,13 +1249,13 @@
         <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
         <v>1.52</v>
@@ -1264,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
         <v>17.5</v>
@@ -1312,7 +1312,7 @@
         <v>30</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -1384,7 +1384,7 @@
         <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
         <v>2.2</v>
@@ -1396,7 +1396,7 @@
         <v>1.43</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
         <v>10.5</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
         <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
         <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.33</v>
@@ -1519,7 +1519,7 @@
         <v>2.96</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
         <v>2.04</v>
@@ -1549,7 +1549,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
         <v>90</v>
@@ -1573,13 +1573,13 @@
         <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO8" t="n">
         <v>100</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -667,40 +667,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I2" t="n">
         <v>5</v>
       </c>
-      <c r="I2" t="n">
-        <v>5.1</v>
-      </c>
       <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.8</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
         <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R2" t="n">
         <v>1.3</v>
@@ -715,10 +715,10 @@
         <v>1.93</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -733,7 +733,7 @@
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -748,7 +748,7 @@
         <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
         <v>22</v>
@@ -772,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -808,16 +808,16 @@
         <v>5.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.46</v>
@@ -826,13 +826,13 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
         <v>2.24</v>
@@ -862,13 +862,13 @@
         <v>7.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AA3" t="n">
         <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
@@ -907,7 +907,7 @@
         <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -949,13 +949,13 @@
         <v>1.81</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G5" t="n">
         <v>5.4</v>
@@ -1084,10 +1084,10 @@
         <v>1.79</v>
       </c>
       <c r="J5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.4</v>
@@ -1102,13 +1102,13 @@
         <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
         <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
         <v>3.7</v>
@@ -1207,40 +1207,40 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="G6" t="n">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="I6" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
         <v>1.31</v>
@@ -1249,70 +1249,70 @@
         <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.57</v>
       </c>
-      <c r="W6" t="n">
-        <v>1.52</v>
-      </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
         <v>17.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
         <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
         <v>2.4</v>
@@ -1432,7 +1432,7 @@
         <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
         <v>36</v>
@@ -1480,19 +1480,19 @@
         <v>1.64</v>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.33</v>
@@ -1501,67 +1501,67 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
         <v>1.79</v>
       </c>
       <c r="R8" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>2.96</v>
+        <v>2.64</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
         <v>24</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1573,16 +1573,16 @@
         <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -697,13 +697,13 @@
         <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
         <v>2.16</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
         <v>4</v>
@@ -724,7 +724,7 @@
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
         <v>36</v>
@@ -733,7 +733,7 @@
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -754,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
@@ -811,7 +811,7 @@
         <v>1.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
@@ -832,7 +832,7 @@
         <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
         <v>2.24</v>
@@ -847,7 +847,7 @@
         <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V3" t="n">
         <v>2.22</v>
@@ -907,7 +907,7 @@
         <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I4" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J4" t="n">
         <v>3.55</v>
@@ -961,7 +961,7 @@
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
         <v>1.48</v>
@@ -1036,7 +1036,7 @@
         <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
         <v>170</v>
@@ -1084,16 +1084,16 @@
         <v>1.79</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>3.6</v>
@@ -1102,19 +1102,19 @@
         <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
         <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
         <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
         <v>1.97</v>
@@ -1207,100 +1207,100 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.66</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.76</v>
-      </c>
       <c r="I6" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.65</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
         <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
         <v>48</v>
@@ -1309,10 +1309,10 @@
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1360,7 +1360,7 @@
         <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1372,7 +1372,7 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
@@ -1393,7 +1393,7 @@
         <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X7" t="n">
         <v>14.5</v>
@@ -1408,7 +1408,7 @@
         <v>32</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
@@ -1420,7 +1420,7 @@
         <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
@@ -1447,7 +1447,7 @@
         <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.64</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.66</v>
-      </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.33</v>
@@ -1501,88 +1501,88 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.79</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
         <v>14.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H2" t="n">
         <v>4.9</v>
@@ -691,7 +691,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
         <v>1.39</v>
@@ -703,7 +703,7 @@
         <v>2.16</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
         <v>4</v>
@@ -718,13 +718,13 @@
         <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z2" t="n">
         <v>36</v>
@@ -733,13 +733,13 @@
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
         <v>75</v>
@@ -748,13 +748,13 @@
         <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
@@ -772,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -805,19 +805,19 @@
         <v>5.6</v>
       </c>
       <c r="G3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.46</v>
@@ -832,13 +832,13 @@
         <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
         <v>4.1</v>
@@ -853,7 +853,7 @@
         <v>2.22</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X3" t="n">
         <v>11.5</v>
@@ -868,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
@@ -907,7 +907,7 @@
         <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -958,10 +958,10 @@
         <v>1.52</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>1.48</v>
@@ -1015,10 +1015,10 @@
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
@@ -1027,7 +1027,7 @@
         <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK4" t="n">
         <v>110</v>
@@ -1036,13 +1036,13 @@
         <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AO4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1078,10 +1078,10 @@
         <v>5.4</v>
       </c>
       <c r="H5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.78</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.79</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
@@ -1090,10 +1090,10 @@
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>3.6</v>
@@ -1114,13 +1114,13 @@
         <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
         <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W5" t="n">
         <v>1.22</v>
@@ -1156,7 +1156,7 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>38</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
         <v>2.88</v>
       </c>
       <c r="H6" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I6" t="n">
         <v>2.74</v>
@@ -1225,10 +1225,10 @@
         <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>3.5</v>
@@ -1246,13 +1246,13 @@
         <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
         <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
         <v>1.58</v>
@@ -1270,7 +1270,7 @@
         <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
         <v>11.5</v>
@@ -1279,10 +1279,10 @@
         <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
         <v>18.5</v>
@@ -1294,13 +1294,13 @@
         <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="n">
         <v>46</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
         <v>48</v>
@@ -1312,7 +1312,7 @@
         <v>32</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1360,7 +1360,7 @@
         <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1372,7 +1372,7 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
@@ -1387,7 +1387,7 @@
         <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
         <v>1.7</v>
@@ -1423,7 +1423,7 @@
         <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
@@ -1447,7 +1447,7 @@
         <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="8">
@@ -1480,22 +1480,22 @@
         <v>1.63</v>
       </c>
       <c r="G8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1504,67 +1504,67 @@
         <v>4.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
         <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
         <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
         <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
         <v>14.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H2" t="n">
         <v>4.9</v>
@@ -679,10 +679,10 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -691,7 +691,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.39</v>
@@ -718,7 +718,7 @@
         <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -733,7 +733,7 @@
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -811,10 +811,10 @@
         <v>1.81</v>
       </c>
       <c r="I3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
         <v>3.75</v>
@@ -832,7 +832,7 @@
         <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
         <v>2.22</v>
@@ -847,10 +847,10 @@
         <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
         <v>1.21</v>
@@ -859,10 +859,10 @@
         <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA3" t="n">
         <v>18</v>
@@ -871,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
@@ -901,13 +901,13 @@
         <v>95</v>
       </c>
       <c r="AM3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
         <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="I4" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.55</v>
@@ -985,13 +985,13 @@
         <v>1.76</v>
       </c>
       <c r="V4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W4" t="n">
         <v>1.19</v>
       </c>
       <c r="X4" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y4" t="n">
         <v>6.6</v>
@@ -1036,13 +1036,13 @@
         <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
         <v>180</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
         <v>1.77</v>
@@ -1090,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1105,7 +1105,7 @@
         <v>1.91</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
         <v>1.34</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I6" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1240,25 +1240,25 @@
         <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T6" t="n">
         <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X6" t="n">
         <v>14</v>
@@ -1270,7 +1270,7 @@
         <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="n">
         <v>11.5</v>
@@ -1279,7 +1279,7 @@
         <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
         <v>32</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.42</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1360,7 +1360,7 @@
         <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1372,28 +1372,28 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
         <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X7" t="n">
         <v>14.5</v>
@@ -1402,13 +1402,13 @@
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
         <v>32</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
@@ -1429,7 +1429,7 @@
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
         <v>60</v>
@@ -1444,7 +1444,7 @@
         <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO7" t="n">
         <v>19.5</v>
@@ -1483,7 +1483,7 @@
         <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
         <v>7.2</v>
@@ -1492,7 +1492,7 @@
         <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.32</v>
@@ -1507,31 +1507,31 @@
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R8" t="n">
         <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
         <v>2.52</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1552,16 +1552,16 @@
         <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>80</v>
@@ -1570,7 +1570,7 @@
         <v>14.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H2" t="n">
         <v>4.9</v>
@@ -679,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>3.85</v>
@@ -712,13 +712,13 @@
         <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
         <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.6</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>5.7</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
-        <v>1.81</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.83</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.09</v>
       </c>
-      <c r="N3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>2.06</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>1.84</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>2.24</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.79</v>
+        <v>2.66</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>2.92</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="O4" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="S4" t="n">
-        <v>4.9</v>
+        <v>2.04</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>2.24</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1058,96 +1058,96 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="I5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.78</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.91</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="V5" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>40</v>
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK5" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>12:35:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.76</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="H6" t="n">
-        <v>2.72</v>
+        <v>2.24</v>
       </c>
       <c r="I6" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>1.87</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.95</v>
+        <v>2.62</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="W6" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,260 +1328,665 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.35</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>1.81</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>2.98</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>2.26</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>1.71</v>
+        <v>2.22</v>
       </c>
       <c r="W7" t="n">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
       <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG7" t="n">
         <v>25</v>
       </c>
-      <c r="AF7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="AO7" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Scottish Premiership</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>2026-01-06</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>St Mirren</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Rangers</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Aberdeen</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F11" t="n">
         <v>1.63</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G11" t="n">
         <v>1.65</v>
       </c>
-      <c r="H8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I11" t="n">
         <v>7.2</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J11" t="n">
         <v>4.1</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="K11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L11" t="n">
         <v>1.32</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M11" t="n">
         <v>1.05</v>
       </c>
-      <c r="N8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.23</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P11" t="n">
         <v>2.28</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q11" t="n">
         <v>1.71</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R11" t="n">
         <v>1.53</v>
       </c>
-      <c r="S8" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="S11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.16</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V11" t="n">
         <v>1.16</v>
       </c>
-      <c r="W8" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="W11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="X11" t="n">
         <v>20</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y11" t="n">
         <v>27</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z11" t="n">
         <v>70</v>
       </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC11" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD11" t="n">
         <v>24</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE11" t="n">
         <v>85</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF11" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG11" t="n">
         <v>10</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH11" t="n">
         <v>19</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI11" t="n">
         <v>80</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ11" t="n">
         <v>14.5</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK11" t="n">
         <v>15</v>
       </c>
-      <c r="AL8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN8" t="n">
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN11" t="n">
         <v>7.6</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO11" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -712,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V2" t="n">
         <v>1.25</v>
@@ -724,7 +724,7 @@
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
         <v>36</v>
@@ -733,7 +733,7 @@
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.18</v>
+        <v>980</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,34 +826,34 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
         <v>1.09</v>
       </c>
       <c r="S3" t="n">
-        <v>2.06</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.01</v>
       </c>
-      <c r="U3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.17</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.24</v>
+        <v>1.02</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>980</v>
       </c>
       <c r="H4" t="n">
-        <v>2.66</v>
+        <v>1.02</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>2.92</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,34 +961,34 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
         <v>1.09</v>
       </c>
       <c r="S4" t="n">
-        <v>2.04</v>
+        <v>1.26</v>
       </c>
       <c r="T4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.01</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>1.01</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.47</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="G5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
         <v>1.82</v>
@@ -1084,19 +1084,19 @@
         <v>1.83</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1117,13 +1117,13 @@
         <v>2.08</v>
       </c>
       <c r="U5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
         <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
         <v>11.5</v>
@@ -1132,10 +1132,10 @@
         <v>7.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB5" t="n">
         <v>16</v>
@@ -1171,13 +1171,13 @@
         <v>95</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
         <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>1.02</v>
       </c>
       <c r="G6" t="n">
-        <v>3.55</v>
+        <v>980</v>
       </c>
       <c r="H6" t="n">
-        <v>2.24</v>
+        <v>1.02</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>980</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,34 +1231,34 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.87</v>
+        <v>1.16</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.16</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="S6" t="n">
-        <v>2.62</v>
+        <v>2.12</v>
       </c>
       <c r="T6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.01</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>1.01</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.39</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="n">
-        <v>6.2</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I7" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
@@ -1360,7 +1360,7 @@
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1372,7 +1372,7 @@
         <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q7" t="n">
         <v>2.44</v>
@@ -1384,16 +1384,16 @@
         <v>4.9</v>
       </c>
       <c r="T7" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U7" t="n">
         <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X7" t="n">
         <v>9.800000000000001</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB7" t="n">
         <v>15.5</v>
@@ -1420,13 +1420,13 @@
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AG7" t="n">
         <v>25</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>55</v>
@@ -1447,7 +1447,7 @@
         <v>180</v>
       </c>
       <c r="AO7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
         <v>1.76</v>
       </c>
       <c r="I8" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K8" t="n">
         <v>4</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1528,13 +1528,13 @@
         <v>2.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X8" t="n">
         <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z8" t="n">
         <v>9.6</v>
@@ -1561,19 +1561,19 @@
         <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK8" t="n">
         <v>80</v>
       </c>
       <c r="AL8" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
         <v>130</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="G9" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="H9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.7</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.78</v>
-      </c>
       <c r="J9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>1.42</v>
@@ -1636,49 +1636,49 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
         <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
         <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W9" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X9" t="n">
         <v>13.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
         <v>7.8</v>
@@ -1690,7 +1690,7 @@
         <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
         <v>12.5</v>
@@ -1708,16 +1708,16 @@
         <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1777,10 +1777,10 @@
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
         <v>1.37</v>
@@ -1816,7 +1816,7 @@
         <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
@@ -1843,10 +1843,10 @@
         <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
         <v>36</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H11" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.32</v>
@@ -1906,13 +1906,13 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
         <v>1.71</v>
@@ -1927,37 +1927,37 @@
         <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
         <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
         <v>27</v>
       </c>
       <c r="Z11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>9.800000000000001</v>
@@ -1966,10 +1966,10 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>14.5</v>
@@ -1984,10 +1984,10 @@
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -670,13 +670,13 @@
         <v>1.86</v>
       </c>
       <c r="G2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I2" t="n">
         <v>4.9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -691,13 +691,13 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
         <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q2" t="n">
         <v>2.16</v>
@@ -712,16 +712,16 @@
         <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
         <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
@@ -733,7 +733,7 @@
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -802,109 +802,109 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>1.77</v>
       </c>
       <c r="G3" t="n">
-        <v>980</v>
+        <v>1.94</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.24</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.09</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02</v>
+        <v>2.56</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.09</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>1.26</v>
+        <v>3.55</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1078,19 +1078,19 @@
         <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.7</v>
       </c>
-      <c r="K5" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
@@ -1114,13 +1114,13 @@
         <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
         <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W5" t="n">
         <v>1.22</v>
@@ -1132,7 +1132,7 @@
         <v>7.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>18.5</v>
@@ -1171,13 +1171,13 @@
         <v>95</v>
       </c>
       <c r="AM5" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
         <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.02</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02</v>
+        <v>2.26</v>
       </c>
       <c r="I6" t="n">
-        <v>980</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.16</v>
+        <v>2.14</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.16</v>
+        <v>1.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="R6" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>2.12</v>
+        <v>2.66</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,10 +1255,10 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="I7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.51</v>
@@ -1375,7 +1375,7 @@
         <v>1.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R7" t="n">
         <v>1.24</v>
@@ -1390,10 +1390,10 @@
         <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="W7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X7" t="n">
         <v>9.800000000000001</v>
@@ -1408,7 +1408,7 @@
         <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -1420,13 +1420,13 @@
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>55</v>
@@ -1438,7 +1438,7 @@
         <v>110</v>
       </c>
       <c r="AL7" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
         <v>200</v>
@@ -1483,31 +1483,31 @@
         <v>5.6</v>
       </c>
       <c r="H8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.76</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.77</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q8" t="n">
         <v>2.06</v>
@@ -1516,16 +1516,16 @@
         <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
         <v>1.97</v>
       </c>
       <c r="V8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="W8" t="n">
         <v>1.21</v>
@@ -1540,7 +1540,7 @@
         <v>9.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB8" t="n">
         <v>17.5</v>
@@ -1552,7 +1552,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
@@ -1573,7 +1573,7 @@
         <v>80</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
         <v>130</v>
@@ -1582,7 +1582,7 @@
         <v>95</v>
       </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G9" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.66</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.7</v>
       </c>
       <c r="J9" t="n">
         <v>3.55</v>
@@ -1630,28 +1630,28 @@
         <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T9" t="n">
         <v>1.83</v>
@@ -1660,25 +1660,25 @@
         <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X9" t="n">
         <v>13.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>7.8</v>
@@ -1690,7 +1690,7 @@
         <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG9" t="n">
         <v>12.5</v>
@@ -1702,16 +1702,16 @@
         <v>48</v>
       </c>
       <c r="AJ9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK9" t="n">
         <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
         <v>32</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.38</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.4</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.41</v>
@@ -1789,13 +1789,13 @@
         <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W10" t="n">
         <v>1.42</v>
@@ -1804,7 +1804,7 @@
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
         <v>14.5</v>
@@ -1822,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
         <v>22</v>
@@ -1840,10 +1840,10 @@
         <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
         <v>85</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.62</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.64</v>
       </c>
       <c r="H11" t="n">
         <v>6.4</v>
@@ -1894,7 +1894,7 @@
         <v>7.4</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
         <v>4.5</v>
@@ -1912,7 +1912,7 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q11" t="n">
         <v>1.71</v>
@@ -1921,28 +1921,28 @@
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="T11" t="n">
         <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
         <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
         <v>27</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1957,19 +1957,19 @@
         <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
         <v>14.5</v>
@@ -1981,13 +1981,13 @@
         <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,7 +679,7 @@
         <v>4.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>3.85</v>
@@ -688,16 +688,16 @@
         <v>1.45</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
         <v>2.16</v>
@@ -709,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
         <v>1.94</v>
@@ -736,7 +736,7 @@
         <v>7.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>19.5</v>
@@ -757,10 +757,10 @@
         <v>85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
         <v>42</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G3" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -826,16 +826,16 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
         <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
@@ -844,10 +844,10 @@
         <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
         <v>1.18</v>
@@ -871,7 +871,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>27</v>
@@ -940,10 +940,10 @@
         <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
         <v>3.3</v>
@@ -979,16 +979,16 @@
         <v>3.55</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
         <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="X4" t="n">
         <v>990</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.83</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.84</v>
       </c>
       <c r="J5" t="n">
         <v>3.65</v>
@@ -1099,16 +1099,16 @@
         <v>3.35</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
         <v>4.1</v>
@@ -1120,22 +1120,22 @@
         <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X5" t="n">
         <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z5" t="n">
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB5" t="n">
         <v>16</v>
@@ -1150,7 +1150,7 @@
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1174,7 +1174,7 @@
         <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="n">
         <v>14.5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
         <v>3.55</v>
@@ -1222,25 +1222,25 @@
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P6" t="n">
         <v>1.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
         <v>1.32</v>
@@ -1249,7 +1249,7 @@
         <v>2.66</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="n">
-        <v>6.2</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.51</v>
@@ -1366,7 +1366,7 @@
         <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>1.48</v>
@@ -1375,7 +1375,7 @@
         <v>1.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R7" t="n">
         <v>1.24</v>
@@ -1384,16 +1384,16 @@
         <v>4.9</v>
       </c>
       <c r="T7" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
         <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X7" t="n">
         <v>9.800000000000001</v>
@@ -1495,34 +1495,34 @@
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.35</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.34</v>
       </c>
       <c r="S8" t="n">
         <v>3.7</v>
       </c>
       <c r="T8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.98</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.97</v>
       </c>
       <c r="V8" t="n">
         <v>2.3</v>
@@ -1534,7 +1534,7 @@
         <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z8" t="n">
         <v>9.6</v>
@@ -1543,7 +1543,7 @@
         <v>17.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC8" t="n">
         <v>8.4</v>
@@ -1573,7 +1573,7 @@
         <v>80</v>
       </c>
       <c r="AL8" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
         <v>130</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G9" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H9" t="n">
         <v>2.62</v>
       </c>
       <c r="I9" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J9" t="n">
         <v>3.55</v>
@@ -1651,10 +1651,10 @@
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
         <v>2.12</v>
@@ -1678,19 +1678,19 @@
         <v>40</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
         <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
         <v>12.5</v>
@@ -1714,16 +1714,16 @@
         <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,261 +1733,396 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.35</v>
+        <v>1.09</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>1.23</v>
       </c>
       <c r="H10" t="n">
-        <v>2.36</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>8.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>1.78</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>1.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>1.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.42</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X11" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Scottish Premiership</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2026-01-06</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Rangers</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Aberdeen</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="F12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>1.32</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M12" t="n">
         <v>1.05</v>
       </c>
-      <c r="N11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="N12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="X12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
         <v>11</v>
       </c>
-      <c r="AC11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK12" t="n">
         <v>15</v>
       </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>110</v>
+      <c r="AL12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
         <v>4.8</v>
@@ -679,52 +679,52 @@
         <v>4.9</v>
       </c>
       <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.8</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
         <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z2" t="n">
         <v>36</v>
@@ -733,13 +733,13 @@
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE2" t="n">
         <v>75</v>
@@ -751,34 +751,34 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
         <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="G3" t="n">
-        <v>1.93</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.94</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>4.3</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>2.06</v>
+        <v>1.22</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="Z3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.199999999999999</v>
+        <v>990</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>990</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -928,118 +928,118 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="O4" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>990</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.5</v>
+        <v>2.52</v>
       </c>
       <c r="G5" t="n">
-        <v>5.7</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82</v>
+        <v>2.74</v>
       </c>
       <c r="I5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.83</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.06</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.6</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,78 +1193,78 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:35:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>1.09</v>
       </c>
       <c r="G6" t="n">
-        <v>3.55</v>
+        <v>600</v>
       </c>
       <c r="H6" t="n">
-        <v>2.26</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>980</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.05</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.02</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,13 +1273,13 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,10 +1288,10 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X7" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH7" t="n">
         <v>23</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
         <v>44</v>
       </c>
-      <c r="AG7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>12:35:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.5</v>
+        <v>2.56</v>
       </c>
       <c r="G8" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="I8" t="n">
-        <v>1.76</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K8" t="n">
         <v>4</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>2.16</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="P8" t="n">
         <v>1.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.3</v>
+        <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,30 +1598,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.92</v>
+        <v>5.9</v>
       </c>
       <c r="G9" t="n">
-        <v>2.96</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.62</v>
+        <v>1.82</v>
       </c>
       <c r="I9" t="n">
-        <v>2.64</v>
+        <v>1.83</v>
       </c>
       <c r="J9" t="n">
         <v>3.55</v>
@@ -1630,100 +1630,100 @@
         <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>2.22</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
         <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.09</v>
+        <v>5.5</v>
       </c>
       <c r="G10" t="n">
-        <v>1.23</v>
+        <v>5.6</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>1.76</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>1.77</v>
       </c>
       <c r="J10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC10" t="n">
         <v>8.6</v>
       </c>
-      <c r="K10" t="n">
-        <v>950</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,30 +1868,30 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="H11" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="I11" t="n">
-        <v>2.38</v>
+        <v>2.68</v>
       </c>
       <c r="J11" t="n">
         <v>3.55</v>
@@ -1900,229 +1900,499 @@
         <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.85</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.6</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="W11" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AA11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
         <v>32</v>
       </c>
-      <c r="AB11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>25</v>
-      </c>
       <c r="AF11" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AK11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
         <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H12" t="n">
+        <v>23</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>110</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Scottish Premiership</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2026-01-06</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Rangers</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Aberdeen</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="F14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H14" t="n">
         <v>7.2</v>
       </c>
-      <c r="I12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="I14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.5</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="L14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M14" t="n">
         <v>1.05</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N14" t="n">
         <v>5.1</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O14" t="n">
         <v>1.22</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P14" t="n">
         <v>2.28</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V12" t="n">
+      <c r="Q14" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.15</v>
       </c>
-      <c r="W12" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="X12" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="W14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="X14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC14" t="n">
         <v>10</v>
       </c>
-      <c r="AD12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AD14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG14" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="AH14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>14</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK14" t="n">
         <v>15</v>
       </c>
-      <c r="AL12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
         <v>120</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN14" t="n">
         <v>7</v>
       </c>
-      <c r="AO12" t="n">
-        <v>980</v>
+      <c r="AO14" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -670,7 +670,7 @@
         <v>1.89</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
         <v>4.8</v>
@@ -679,25 +679,25 @@
         <v>4.9</v>
       </c>
       <c r="J2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.75</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
         <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
         <v>2.14</v>
@@ -706,10 +706,10 @@
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
         <v>1.98</v>
@@ -721,7 +721,7 @@
         <v>2.1</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
         <v>15.5</v>
@@ -730,16 +730,16 @@
         <v>36</v>
       </c>
       <c r="AA2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
         <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>75</v>
@@ -748,7 +748,7 @@
         <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -757,7 +757,7 @@
         <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="G3" t="n">
         <v>44</v>
@@ -823,19 +823,19 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P3" t="n">
         <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H4" t="n">
         <v>5.3</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -955,7 +955,7 @@
         <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -985,7 +985,7 @@
         <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
         <v>2.06</v>
@@ -997,16 +997,16 @@
         <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>27</v>
@@ -1021,7 +1021,7 @@
         <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,16 +1030,16 @@
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.05</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.92</v>
-      </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.39</v>
@@ -1099,70 +1099,70 @@
         <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W5" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
         <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>1.09</v>
       </c>
       <c r="G6" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="H6" t="n">
         <v>1.04</v>
@@ -1228,19 +1228,19 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
         <v>1.24</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P6" t="n">
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
@@ -1276,7 +1276,7 @@
         <v>990</v>
       </c>
       <c r="AC6" t="n">
-        <v>990</v>
+        <v>100</v>
       </c>
       <c r="AD6" t="n">
         <v>990</v>
@@ -1348,16 +1348,16 @@
         <v>5.7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.47</v>
@@ -1369,10 +1369,10 @@
         <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
         <v>2.22</v>
@@ -1384,13 +1384,13 @@
         <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W7" t="n">
         <v>1.21</v>
@@ -1408,7 +1408,7 @@
         <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -1435,16 +1435,16 @@
         <v>150</v>
       </c>
       <c r="AK7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL7" t="n">
         <v>90</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>95</v>
       </c>
       <c r="AM7" t="n">
         <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AO7" t="n">
         <v>14.5</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="I8" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>1.28</v>
@@ -1504,10 +1504,10 @@
         <v>2.16</v>
       </c>
       <c r="O8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P8" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
         <v>1.67</v>
@@ -1525,10 +1525,10 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1657,7 +1657,7 @@
         <v>2.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V9" t="n">
         <v>2.2</v>
@@ -1669,7 +1669,7 @@
         <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Z9" t="n">
         <v>9</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.76</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.77</v>
-      </c>
       <c r="J10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.43</v>
@@ -1771,28 +1771,28 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
         <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
         <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
         <v>2.3</v>
@@ -1804,10 +1804,10 @@
         <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
         <v>17.5</v>
@@ -1819,13 +1819,13 @@
         <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE10" t="n">
         <v>18.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -1843,7 +1843,7 @@
         <v>80</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
         <v>130</v>
@@ -1894,10 +1894,10 @@
         <v>2.68</v>
       </c>
       <c r="J11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.43</v>
@@ -1906,7 +1906,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.35</v>
@@ -1930,13 +1930,13 @@
         <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W11" t="n">
         <v>1.51</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
@@ -1951,13 +1951,13 @@
         <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
         <v>19</v>
@@ -1969,7 +1969,7 @@
         <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>48</v>
@@ -1987,7 +1987,7 @@
         <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -2029,7 +2029,7 @@
         <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>12.5</v>
@@ -2056,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="T12" t="n">
         <v>2.18</v>
@@ -2068,7 +2068,7 @@
         <v>1.03</v>
       </c>
       <c r="W12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X12" t="n">
         <v>55</v>
@@ -2089,7 +2089,7 @@
         <v>27</v>
       </c>
       <c r="AD12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2158,10 +2158,10 @@
         <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
@@ -2185,10 +2185,10 @@
         <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S13" t="n">
         <v>3.6</v>
@@ -2200,7 +2200,7 @@
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W13" t="n">
         <v>1.42</v>
@@ -2290,10 +2290,10 @@
         <v>1.57</v>
       </c>
       <c r="G14" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I14" t="n">
         <v>7.8</v>
@@ -2302,7 +2302,7 @@
         <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
@@ -2311,19 +2311,19 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q14" t="n">
         <v>1.71</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
         <v>2.74</v>
@@ -2338,16 +2338,16 @@
         <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="X14" t="n">
         <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AA14" t="n">
         <v>200</v>
@@ -2362,7 +2362,7 @@
         <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AF14" t="n">
         <v>9.800000000000001</v>
@@ -2371,7 +2371,7 @@
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
         <v>90</v>
@@ -2386,10 +2386,10 @@
         <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO14" t="n">
         <v>100</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
         <v>4.8</v>
@@ -682,10 +682,10 @@
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -697,7 +697,7 @@
         <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
         <v>2.14</v>
@@ -709,10 +709,10 @@
         <v>3.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V2" t="n">
         <v>1.25</v>
@@ -739,10 +739,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
         <v>10.5</v>
@@ -754,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -766,7 +766,7 @@
         <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>15</v>
@@ -817,7 +817,7 @@
         <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -940,7 +940,7 @@
         <v>1.77</v>
       </c>
       <c r="G4" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H4" t="n">
         <v>5.3</v>
@@ -961,22 +961,22 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
         <v>2.04</v>
@@ -991,7 +991,7 @@
         <v>2.06</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>18</v>
@@ -1009,7 +1009,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,37 +1072,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H5" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
         <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
         <v>2.14</v>
@@ -1111,25 +1111,25 @@
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
         <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W5" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X5" t="n">
         <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1144,7 +1144,7 @@
         <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
         <v>60</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.09</v>
+        <v>1.66</v>
       </c>
       <c r="G6" t="n">
-        <v>270</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.04</v>
       </c>
-      <c r="I6" t="n">
-        <v>980</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>32</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.02</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.02</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.02</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>990</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>990</v>
@@ -1285,22 +1285,22 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1369,13 +1369,13 @@
         <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R7" t="n">
         <v>1.29</v>
@@ -1387,7 +1387,7 @@
         <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
         <v>2.16</v>
@@ -1399,16 +1399,16 @@
         <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AA7" t="n">
         <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -1420,7 +1420,7 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
@@ -1438,13 +1438,13 @@
         <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AO7" t="n">
         <v>14.5</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I8" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>3.95</v>
@@ -1636,28 +1636,28 @@
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
         <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V9" t="n">
         <v>2.2</v>
@@ -1669,13 +1669,13 @@
         <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z9" t="n">
         <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
@@ -1762,7 +1762,7 @@
         <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.43</v>
@@ -1792,7 +1792,7 @@
         <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>2.3</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.92</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.96</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I11" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
@@ -1930,10 +1930,10 @@
         <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
         <v>13.5</v>
@@ -1957,16 +1957,16 @@
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>44</v>
@@ -1984,10 +1984,10 @@
         <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2026,10 +2026,10 @@
         <v>23</v>
       </c>
       <c r="I12" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>12.5</v>
@@ -2041,16 +2041,16 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R12" t="n">
         <v>2</v>
@@ -2065,7 +2065,7 @@
         <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="W12" t="n">
         <v>6.8</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
         <v>2.38</v>
@@ -2170,7 +2170,7 @@
         <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2185,10 +2185,10 @@
         <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
         <v>3.6</v>
@@ -2200,7 +2200,7 @@
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W13" t="n">
         <v>1.42</v>
@@ -2311,25 +2311,25 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q14" t="n">
         <v>1.71</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -2338,13 +2338,13 @@
         <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
         <v>70</v>
@@ -2356,13 +2356,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
         <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
         <v>9.800000000000001</v>
@@ -2371,10 +2371,10 @@
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="n">
         <v>14</v>
@@ -2386,13 +2386,13 @@
         <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
         <v>6.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -667,88 +667,88 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
         <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
         <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO2" t="n">
         <v>85</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>7.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>1.26</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>2.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.06</v>
+        <v>1.46</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.66</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.22</v>
+        <v>3.05</v>
       </c>
       <c r="X3" t="n">
         <v>990</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>990</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -964,52 +964,52 @@
         <v>2.96</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC4" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC4" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,28 +1018,28 @@
         <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,97 +1072,97 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>2.86</v>
       </c>
       <c r="G5" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.94</v>
+        <v>2.58</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>2.86</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
         <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
         <v>990</v>
       </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>60</v>
-      </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1210,46 +1210,46 @@
         <v>1.66</v>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
         <v>2.12</v>
@@ -1258,7 +1258,7 @@
         <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1297,10 +1297,10 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I7" t="n">
         <v>1.85</v>
@@ -1360,94 +1360,94 @@
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W7" t="n">
         <v>1.21</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
         <v>9.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
         <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN7" t="n">
         <v>160</v>
       </c>
-      <c r="AN7" t="n">
-        <v>140</v>
-      </c>
       <c r="AO7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.7</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>2.16</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="V8" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="W8" t="n">
         <v>1.48</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G9" t="n">
         <v>5.9</v>
       </c>
-      <c r="G9" t="n">
-        <v>6</v>
-      </c>
       <c r="H9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.82</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.83</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>1.52</v>
@@ -1636,13 +1636,13 @@
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
         <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q9" t="n">
         <v>2.42</v>
@@ -1654,19 +1654,19 @@
         <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W9" t="n">
         <v>1.2</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y9" t="n">
         <v>6.6</v>
@@ -1678,7 +1678,7 @@
         <v>18</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
         <v>7.8</v>
@@ -1714,10 +1714,10 @@
         <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10">
@@ -1759,34 +1759,34 @@
         <v>1.76</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
         <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
         <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
         <v>1.94</v>
@@ -1801,19 +1801,19 @@
         <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
         <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA10" t="n">
         <v>17.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC10" t="n">
         <v>8.6</v>
@@ -1849,10 +1849,10 @@
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G11" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="I11" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U11" t="n">
         <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="X11" t="n">
         <v>13.5</v>
@@ -1942,28 +1942,28 @@
         <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
         <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AF11" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
@@ -1972,22 +1972,22 @@
         <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
         <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -2029,19 +2029,19 @@
         <v>36</v>
       </c>
       <c r="J12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>12.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O12" t="n">
         <v>1.1</v>
@@ -2053,19 +2053,19 @@
         <v>1.31</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S12" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="T12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W12" t="n">
         <v>6.8</v>
@@ -2113,13 +2113,13 @@
         <v>15.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G13" t="n">
         <v>3.35</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.4</v>
       </c>
       <c r="H13" t="n">
         <v>2.38</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
@@ -2170,55 +2170,55 @@
         <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S13" t="n">
         <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W13" t="n">
         <v>1.42</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
         <v>14.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
         <v>7.6</v>
@@ -2227,37 +2227,37 @@
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
         <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
         <v>36</v>
       </c>
       <c r="AO13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -2287,49 +2287,49 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G14" t="n">
         <v>1.58</v>
       </c>
       <c r="H14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J14" t="n">
         <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q14" t="n">
         <v>1.71</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -2341,19 +2341,19 @@
         <v>2.72</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
         <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
         <v>9.6</v>
@@ -2362,10 +2362,10 @@
         <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
@@ -2374,7 +2374,7 @@
         <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
         <v>14</v>
@@ -2392,7 +2392,7 @@
         <v>6.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>110</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -667,100 +667,100 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG2" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG2" t="n">
-        <v>10</v>
-      </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>40</v>
@@ -769,10 +769,10 @@
         <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H3" t="n">
         <v>6.4</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="S3" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X3" t="n">
         <v>990</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC3" t="n">
         <v>42</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
@@ -958,46 +958,46 @@
         <v>1.54</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P4" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.24</v>
       </c>
-      <c r="S4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1021,19 +1021,19 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,73 +1072,73 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.86</v>
+        <v>2.36</v>
       </c>
       <c r="G5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.2</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.58</v>
-      </c>
       <c r="I5" t="n">
-        <v>2.86</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
         <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
         <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
         <v>14</v>
@@ -1147,16 +1147,16 @@
         <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S6" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
         <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1276,7 +1276,7 @@
         <v>46</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
         <v>990</v>
@@ -1348,67 +1348,67 @@
         <v>5.8</v>
       </c>
       <c r="H7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.83</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.85</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X7" t="n">
         <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA7" t="n">
         <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
         <v>7.8</v>
@@ -1429,25 +1429,25 @@
         <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
         <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G8" t="n">
         <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>4.2</v>
@@ -1507,52 +1507,52 @@
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
         <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="T8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V8" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="W8" t="n">
         <v>1.48</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
         <v>22</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G9" t="n">
         <v>5.8</v>
       </c>
-      <c r="G9" t="n">
-        <v>5.9</v>
-      </c>
       <c r="H9" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I9" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="J9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.6</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R9" t="n">
         <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T9" t="n">
         <v>2.22</v>
@@ -1660,28 +1660,28 @@
         <v>1.77</v>
       </c>
       <c r="V9" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="W9" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X9" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y9" t="n">
         <v>6.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA9" t="n">
         <v>18</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>10.5</v>
@@ -1696,19 +1696,19 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AK9" t="n">
         <v>110</v>
       </c>
       <c r="AL9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
         <v>200</v>
@@ -1717,7 +1717,7 @@
         <v>150</v>
       </c>
       <c r="AO9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -1765,7 +1765,7 @@
         <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1777,7 +1777,7 @@
         <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
         <v>2.04</v>
@@ -1789,10 +1789,10 @@
         <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
         <v>2.3</v>
@@ -1801,7 +1801,7 @@
         <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
         <v>8</v>
@@ -1816,7 +1816,7 @@
         <v>18</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>9.6</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
         <v>2.44</v>
@@ -1906,16 +1906,16 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
         <v>1.33</v>
@@ -1933,7 +1933,7 @@
         <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X11" t="n">
         <v>13.5</v>
@@ -1951,7 +1951,7 @@
         <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
         <v>11.5</v>
@@ -1969,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
         <v>55</v>
@@ -1981,10 +1981,10 @@
         <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
         <v>23</v>
@@ -2020,7 +2020,7 @@
         <v>1.13</v>
       </c>
       <c r="G12" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H12" t="n">
         <v>23</v>
@@ -2029,10 +2029,10 @@
         <v>36</v>
       </c>
       <c r="J12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L12" t="n">
         <v>1.2</v>
@@ -2041,28 +2041,28 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="T12" t="n">
         <v>2.16</v>
       </c>
       <c r="U12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
         <v>1.03</v>
@@ -2086,7 +2086,7 @@
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2101,7 +2101,7 @@
         <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2164,40 +2164,40 @@
         <v>2.42</v>
       </c>
       <c r="J13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.55</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
         <v>1.71</v>
@@ -2206,31 +2206,31 @@
         <v>1.42</v>
       </c>
       <c r="X13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z13" t="n">
         <v>14</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
         <v>30</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
@@ -2239,25 +2239,25 @@
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
         <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2290,16 @@
         <v>1.56</v>
       </c>
       <c r="G14" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I14" t="n">
         <v>7.6</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
@@ -2314,7 +2314,7 @@
         <v>5.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
         <v>2.32</v>
@@ -2326,10 +2326,10 @@
         <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -2338,16 +2338,16 @@
         <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2356,25 +2356,25 @@
         <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
         <v>9.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="n">
         <v>14</v>
@@ -2392,7 +2392,7 @@
         <v>6.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>320</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.14</v>
       </c>
       <c r="G2" t="n">
-        <v>1.82</v>
+        <v>1.15</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>5.3</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>2.02</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.15</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>7.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>44</v>
       </c>
       <c r="T2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
         <v>2</v>
       </c>
-      <c r="U2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>260</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK2" t="n">
         <v>150</v>
       </c>
-      <c r="AB2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>19</v>
-      </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>13.5</v>
+        <v>180</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G3" t="n">
         <v>1.47</v>
       </c>
       <c r="H3" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="R3" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="S3" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X3" t="n">
         <v>990</v>
@@ -937,85 +937,85 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="P4" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.23</v>
       </c>
-      <c r="S4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.24</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1024,16 +1024,16 @@
         <v>42</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -1072,88 +1072,88 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.36</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>2.74</v>
       </c>
       <c r="I5" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>65</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>36</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
         <v>60</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
@@ -1231,34 +1231,34 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
         <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.16</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.22</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>990</v>
@@ -1285,13 +1285,13 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1348,16 +1348,16 @@
         <v>5.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.51</v>
@@ -1372,10 +1372,10 @@
         <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
@@ -1387,16 +1387,16 @@
         <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W7" t="n">
         <v>1.2</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
         <v>7.2</v>
@@ -1405,7 +1405,7 @@
         <v>9.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB7" t="n">
         <v>16.5</v>
@@ -1414,19 +1414,19 @@
         <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG7" t="n">
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>46</v>
@@ -1444,7 +1444,7 @@
         <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.56</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
         <v>3.95</v>
@@ -1501,7 +1501,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1510,55 +1510,55 @@
         <v>2.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
         <v>2.28</v>
       </c>
       <c r="V8" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="W8" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
         <v>16.5</v>
@@ -1567,22 +1567,22 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
         <v>28</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="G9" t="n">
         <v>5.8</v>
       </c>
       <c r="H9" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I9" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
         <v>3.55</v>
@@ -1630,40 +1630,40 @@
         <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
         <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V9" t="n">
         <v>2.18</v>
       </c>
       <c r="W9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X9" t="n">
         <v>9.800000000000001</v>
@@ -1675,7 +1675,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AA9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF9" t="n">
         <v>44</v>
@@ -1696,7 +1696,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>55</v>
@@ -1711,10 +1711,10 @@
         <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN9" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AO9" t="n">
         <v>17</v>
@@ -1753,16 +1753,16 @@
         <v>5.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I10" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.43</v>
@@ -1771,37 +1771,37 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U10" t="n">
         <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="W10" t="n">
         <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
         <v>8</v>
@@ -1813,7 +1813,7 @@
         <v>17.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.4</v>
@@ -1831,10 +1831,10 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ10" t="n">
         <v>150</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H11" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="I11" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
         <v>1.44</v>
@@ -1906,88 +1906,88 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
         <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
         <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="n">
         <v>42</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>38</v>
       </c>
       <c r="AL11" t="n">
         <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -2020,19 +2020,19 @@
         <v>1.13</v>
       </c>
       <c r="G12" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H12" t="n">
         <v>23</v>
       </c>
       <c r="I12" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J12" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="K12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L12" t="n">
         <v>1.2</v>
@@ -2041,37 +2041,37 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="R12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T12" t="n">
         <v>2.16</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="V12" t="n">
         <v>1.03</v>
       </c>
       <c r="W12" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="Y12" t="n">
         <v>110</v>
@@ -2086,7 +2086,7 @@
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2095,31 +2095,31 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2158,37 +2158,37 @@
         <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
         <v>3.85</v>
@@ -2197,10 +2197,10 @@
         <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="W13" t="n">
         <v>1.42</v>
@@ -2215,7 +2215,7 @@
         <v>14</v>
       </c>
       <c r="AA13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
@@ -2236,7 +2236,7 @@
         <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI13" t="n">
         <v>38</v>
@@ -2248,16 +2248,16 @@
         <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="G14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.33</v>
@@ -2311,16 +2311,16 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R14" t="n">
         <v>1.53</v>
@@ -2329,40 +2329,40 @@
         <v>2.78</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
         <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
         <v>9.6</v>
@@ -2371,28 +2371,28 @@
         <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
         <v>6.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>110</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.14</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.02</v>
-      </c>
       <c r="P2" t="n">
-        <v>1.15</v>
+        <v>2.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.4</v>
+        <v>1.43</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="S2" t="n">
-        <v>44</v>
+        <v>2.06</v>
       </c>
       <c r="T2" t="n">
-        <v>4.6</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>1.23</v>
+        <v>2.24</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,34 +733,34 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>260</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>1.47</v>
+        <v>1.96</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="J3" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6.2</v>
+        <v>2.98</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>2.92</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.43</v>
+        <v>2.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.79</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.06</v>
       </c>
-      <c r="T3" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>3.05</v>
+        <v>2.04</v>
       </c>
       <c r="X3" t="n">
-        <v>990</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>990</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB3" t="n">
-        <v>990</v>
+        <v>7.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.96</v>
+        <v>2.72</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2.74</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>2.96</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
         <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.51</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="X4" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK4" t="n">
         <v>36</v>
       </c>
-      <c r="AA4" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AL4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM4" t="n">
         <v>120</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Waldhof Mannheim</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>1.57</v>
       </c>
       <c r="G5" t="n">
-        <v>2.86</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>2.74</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.84</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>3.15</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.24</v>
+        <v>1.37</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.89</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.47</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2.56</v>
       </c>
       <c r="V5" t="n">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.54</v>
+        <v>2.46</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="Y5" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z5" t="n">
         <v>65</v>
       </c>
-      <c r="Z5" t="n">
-        <v>42</v>
-      </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X6" t="n">
-        <v>990</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="n">
         <v>990</v>
@@ -1273,34 +1273,34 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>990</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.82</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.84</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.51</v>
@@ -1366,31 +1366,31 @@
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="W7" t="n">
         <v>1.2</v>
@@ -1399,25 +1399,25 @@
         <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
         <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>42</v>
@@ -1426,28 +1426,28 @@
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AK7" t="n">
         <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H8" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I8" t="n">
         <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>3.95</v>
@@ -1501,49 +1501,49 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
         <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S8" t="n">
         <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
         <v>18</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
@@ -1558,10 +1558,10 @@
         <v>25</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>36</v>
@@ -1570,19 +1570,19 @@
         <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
         <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO8" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1612,70 +1612,70 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="I9" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>1.53</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P9" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
         <v>1.2</v>
       </c>
       <c r="X9" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z9" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
@@ -1687,37 +1687,37 @@
         <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>44</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ9" t="n">
         <v>160</v>
       </c>
       <c r="AK9" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL9" t="n">
         <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN9" t="n">
         <v>170</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="10">
@@ -1753,10 +1753,10 @@
         <v>5.7</v>
       </c>
       <c r="H10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.76</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.77</v>
       </c>
       <c r="J10" t="n">
         <v>3.9</v>
@@ -1765,61 +1765,61 @@
         <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T10" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="W10" t="n">
         <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
         <v>8</v>
       </c>
       <c r="Z10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD10" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.6</v>
       </c>
       <c r="AE10" t="n">
         <v>18.5</v>
@@ -1834,7 +1834,7 @@
         <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
         <v>150</v>
@@ -1846,13 +1846,13 @@
         <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
         <v>95</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G11" t="n">
         <v>3.4</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.45</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
@@ -1900,46 +1900,46 @@
         <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z11" t="n">
         <v>14.5</v>
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF11" t="n">
         <v>23</v>
@@ -1966,28 +1966,28 @@
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
         <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="n">
         <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="G12" t="n">
         <v>1.15</v>
@@ -2026,10 +2026,10 @@
         <v>23</v>
       </c>
       <c r="I12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="K12" t="n">
         <v>14</v>
@@ -2047,10 +2047,10 @@
         <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R12" t="n">
         <v>2.02</v>
@@ -2062,7 +2062,7 @@
         <v>2.16</v>
       </c>
       <c r="U12" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
         <v>1.03</v>
@@ -2074,7 +2074,7 @@
         <v>250</v>
       </c>
       <c r="Y12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2086,10 +2086,10 @@
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2098,7 +2098,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
         <v>60</v>
@@ -2107,7 +2107,7 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK12" t="n">
         <v>15</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2164,61 +2164,61 @@
         <v>2.44</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S13" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W13" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
         <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
@@ -2233,31 +2233,31 @@
         <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
         <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -2287,67 +2287,67 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="H14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I14" t="n">
         <v>7.6</v>
       </c>
-      <c r="I14" t="n">
-        <v>7.8</v>
-      </c>
       <c r="J14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.6</v>
       </c>
-      <c r="K14" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W14" t="n">
         <v>2.78</v>
       </c>
-      <c r="T14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.88</v>
-      </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2359,40 +2359,40 @@
         <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG14" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
         <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>320</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>690</v>
       </c>
       <c r="H2" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="n">
-        <v>8.6</v>
+        <v>690</v>
       </c>
       <c r="J2" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>6.8</v>
+        <v>750</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -739,7 +739,7 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -763,13 +763,13 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="G3" t="n">
-        <v>1.96</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5.3</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W3" t="n">
         <v>3.35</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.04</v>
-      </c>
       <c r="X3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>930</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>19.5</v>
+        <v>930</v>
       </c>
       <c r="AO3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.72</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2.92</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.96</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>2.66</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>2.84</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.77</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.18</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>2.38</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.51</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>3.9</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
@@ -1072,34 +1072,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
         <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
         <v>3.15</v>
@@ -1108,73 +1108,73 @@
         <v>1.37</v>
       </c>
       <c r="R5" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="S5" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="X5" t="n">
-        <v>990</v>
+        <v>120</v>
       </c>
       <c r="Y5" t="n">
-        <v>990</v>
+        <v>100</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AA5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>990</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG5" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>790</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="AO5" t="n">
         <v>980</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="G6" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="X6" t="n">
         <v>38</v>
       </c>
       <c r="Y6" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1282,13 +1282,13 @@
         <v>36</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF6" t="n">
         <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
         <v>44</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="n">
         <v>65</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,55 +1342,55 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G7" t="n">
         <v>5.8</v>
       </c>
-      <c r="G7" t="n">
-        <v>5.9</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="I7" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
         <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
         <v>1.2</v>
@@ -1399,55 +1399,55 @@
         <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB7" t="n">
         <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG7" t="n">
         <v>21</v>
       </c>
-      <c r="AF7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>22</v>
       </c>
-      <c r="AH7" t="n">
-        <v>24</v>
-      </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AK7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
         <v>180</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.36</v>
@@ -1501,34 +1501,34 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
         <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V8" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X8" t="n">
         <v>18</v>
@@ -1537,52 +1537,52 @@
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF8" t="n">
         <v>30</v>
       </c>
-      <c r="AB8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>25</v>
-      </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AK8" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
         <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="G9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.81</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.82</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
@@ -1630,37 +1630,37 @@
         <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q9" t="n">
         <v>2.34</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U9" t="n">
         <v>1.81</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W9" t="n">
         <v>1.2</v>
@@ -1669,16 +1669,16 @@
         <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AA9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -1696,7 +1696,7 @@
         <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>48</v>
@@ -1717,7 +1717,7 @@
         <v>170</v>
       </c>
       <c r="AO9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G10" t="n">
         <v>5.6</v>
       </c>
-      <c r="G10" t="n">
-        <v>5.7</v>
-      </c>
       <c r="H10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I10" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J10" t="n">
         <v>3.9</v>
@@ -1771,46 +1771,46 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
         <v>2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
         <v>3.65</v>
       </c>
       <c r="T10" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="W10" t="n">
         <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z10" t="n">
         <v>9.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB10" t="n">
         <v>18</v>
@@ -1837,10 +1837,10 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="n">
         <v>80</v>
@@ -1852,7 +1852,7 @@
         <v>95</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1888,10 +1888,10 @@
         <v>3.4</v>
       </c>
       <c r="H11" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.42</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
@@ -1906,40 +1906,40 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
         <v>14.5</v>
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF11" t="n">
         <v>23</v>
@@ -1966,7 +1966,7 @@
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
         <v>42</v>
@@ -1975,19 +1975,19 @@
         <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -2023,58 +2023,58 @@
         <v>1.15</v>
       </c>
       <c r="H12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I12" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="K12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="Q12" t="n">
         <v>1.32</v>
       </c>
       <c r="R12" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T12" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V12" t="n">
         <v>1.03</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD12" t="n">
         <v>990</v>
@@ -2101,13 +2101,13 @@
         <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
         <v>15</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G13" t="n">
         <v>3.3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.35</v>
       </c>
       <c r="H13" t="n">
         <v>2.42</v>
@@ -2194,19 +2194,19 @@
         <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
         <v>1.43</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
         <v>10.5</v>
@@ -2221,13 +2221,13 @@
         <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
         <v>21</v>
@@ -2248,7 +2248,7 @@
         <v>38</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
         <v>85</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G14" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H14" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="I14" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J14" t="n">
         <v>4.5</v>
@@ -2305,40 +2305,40 @@
         <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="X14" t="n">
         <v>19.5</v>
@@ -2347,52 +2347,52 @@
         <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AF14" t="n">
         <v>9.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK14" t="n">
         <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,60 +653,60 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Waldhof Mannheim</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>690</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>690</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.96</v>
+        <v>1.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="R2" t="n">
         <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -718,7 +718,7 @@
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>100</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>690</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,13 +757,13 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.25</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,28 +832,28 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.01</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
+        <v>100</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.01</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.06</v>
+        <v>330</v>
       </c>
       <c r="W3" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -862,10 +862,10 @@
         <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>1.14</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -889,7 +889,7 @@
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>930</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -898,13 +898,13 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>930</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>12:35:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>2.82</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>2.72</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>2.94</v>
       </c>
       <c r="J4" t="n">
-        <v>2.66</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.84</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.3</v>
+        <v>2.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>2.38</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.51</v>
       </c>
       <c r="W4" t="n">
-        <v>1.98</v>
+        <v>1.49</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL4" t="n">
         <v>80</v>
       </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
       <c r="AM4" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AN4" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.53</v>
+        <v>5.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.61</v>
+        <v>5.8</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>1.83</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>1.85</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.23</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>7.2</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>3.15</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.37</v>
+        <v>2.36</v>
       </c>
       <c r="R5" t="n">
-        <v>1.97</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>2.58</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>2.18</v>
       </c>
       <c r="W5" t="n">
-        <v>2.62</v>
+        <v>1.2</v>
       </c>
       <c r="X5" t="n">
-        <v>120</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="Z5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>160</v>
       </c>
-      <c r="AA5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>38</v>
-      </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="n">
-        <v>790</v>
+        <v>170</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.2</v>
+        <v>170</v>
       </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.71</v>
+        <v>5.9</v>
       </c>
       <c r="G6" t="n">
-        <v>1.78</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>1.74</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>2.34</v>
+        <v>1.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>2.76</v>
+        <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>2.32</v>
       </c>
       <c r="W6" t="n">
-        <v>2.28</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI6" t="n">
         <v>38</v>
       </c>
-      <c r="Y6" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="AK6" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.6</v>
+        <v>3.35</v>
       </c>
       <c r="G7" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.83</v>
+        <v>2.36</v>
       </c>
       <c r="I7" t="n">
-        <v>1.84</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.55</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.65</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.2</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
         <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:35:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>1.12</v>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.26</v>
+        <v>26</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>11.5</v>
       </c>
       <c r="K8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.9</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.14</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.32</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.69</v>
+        <v>2.16</v>
       </c>
       <c r="U8" t="n">
-        <v>2.26</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.77</v>
+        <v>1.03</v>
       </c>
       <c r="W8" t="n">
-        <v>1.39</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC8" t="n">
         <v>28</v>
       </c>
-      <c r="AB8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>400</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>30</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL8" t="n">
         <v>46</v>
       </c>
-      <c r="AL8" t="n">
-        <v>70</v>
-      </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>2.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.9</v>
+        <v>3.25</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.8</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.16</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="V9" t="n">
-        <v>2.22</v>
+        <v>1.69</v>
       </c>
       <c r="W9" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="X9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>7</v>
-      </c>
       <c r="Z9" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF9" t="n">
         <v>21</v>
       </c>
-      <c r="AF9" t="n">
-        <v>44</v>
-      </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,665 +1733,125 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.5</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>1.52</v>
       </c>
       <c r="H10" t="n">
-        <v>1.76</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.77</v>
+        <v>8.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>3.65</v>
+        <v>2.72</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>2.28</v>
+        <v>1.13</v>
       </c>
       <c r="W10" t="n">
-        <v>1.21</v>
+        <v>2.92</v>
       </c>
       <c r="X10" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK10" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>75</v>
-      </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>95</v>
+        <v>6.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Livingston</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>St Mirren</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>The New Saints</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Bala Town</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H12" t="n">
-        <v>26</v>
-      </c>
-      <c r="I12" t="n">
-        <v>32</v>
-      </c>
-      <c r="J12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8</v>
-      </c>
-      <c r="X12" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>West Ham</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Nottm Forest</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Rangers</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Aberdeen</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="X14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO14" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>1000</v>
+        <v>1.26</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>1.27</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>5.7</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,79 +691,79 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.5</v>
+        <v>2.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>7.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="W2" t="n">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF2" t="n">
         <v>1000</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AG2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>1000</v>
       </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>690</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>850</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>850</v>
-      </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.11</v>
+        <v>1.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.199999999999999</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN3" t="n">
         <v>100</v>
       </c>
-      <c r="T3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V3" t="n">
-        <v>330</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:35:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.72</v>
+        <v>2.36</v>
       </c>
       <c r="I4" t="n">
-        <v>2.94</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.48</v>
+        <v>1.97</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.97</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
         <v>60</v>
       </c>
       <c r="AK4" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AO4" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.7</v>
+        <v>1.11</v>
       </c>
       <c r="G5" t="n">
-        <v>5.8</v>
+        <v>1.12</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83</v>
+        <v>28</v>
       </c>
       <c r="I5" t="n">
-        <v>1.85</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>12.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>14</v>
       </c>
       <c r="L5" t="n">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>3.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.36</v>
+        <v>1.33</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>2.16</v>
       </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>1.78</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="V5" t="n">
-        <v>2.18</v>
+        <v>1.02</v>
       </c>
       <c r="W5" t="n">
-        <v>1.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X5" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AG5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AA5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AK5" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>90</v>
-      </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>170</v>
+        <v>2.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.9</v>
+        <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.75</v>
+        <v>2.52</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.4</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ6" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1328,531 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.35</v>
+        <v>1.47</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>2.36</v>
+        <v>8.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>1.91</v>
+        <v>2.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="S7" t="n">
-        <v>3.65</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.5</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
         <v>23</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
         <v>14</v>
       </c>
-      <c r="AH7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>42</v>
-      </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>5.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>The New Saints</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Bala Town</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H8" t="n">
-        <v>26</v>
-      </c>
-      <c r="I8" t="n">
-        <v>30</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>West Ham</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Nottm Forest</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X9" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Rangers</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Aberdeen</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="X10" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>6.2</v>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>6.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.26</v>
+        <v>1.77</v>
       </c>
       <c r="I2" t="n">
-        <v>1.27</v>
+        <v>1.78</v>
       </c>
       <c r="J2" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5.9</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="P2" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="V2" t="n">
-        <v>4.7</v>
+        <v>2.26</v>
       </c>
       <c r="W2" t="n">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.5</v>
+        <v>8.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG2" t="n">
         <v>25</v>
       </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>38</v>
-      </c>
       <c r="AH2" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK2" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="AL2" t="n">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.8</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75</v>
+        <v>2.36</v>
       </c>
       <c r="I3" t="n">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO3" t="n">
         <v>36</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>11.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>360</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>390</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN4" t="n">
         <v>3.35</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>40</v>
-      </c>
       <c r="AO4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.11</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.12</v>
+        <v>3.15</v>
       </c>
       <c r="H5" t="n">
-        <v>28</v>
+        <v>2.48</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG5" t="n">
         <v>12.5</v>
       </c>
-      <c r="K5" t="n">
-        <v>14</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="AH5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM5" t="n">
         <v>75</v>
       </c>
-      <c r="Y5" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="AN5" t="n">
         <v>29</v>
       </c>
-      <c r="AD5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,256 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.15</v>
+        <v>1.35</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>1.37</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>10.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.52</v>
+        <v>11.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.99</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.65</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>520</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>50</v>
-      </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>34</v>
+        <v>5.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Rangers</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Aberdeen</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -907,13 +907,13 @@
         <v>40</v>
       </c>
       <c r="AO3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,256 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Rangers</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Aberdeen</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X6" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>520</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,546 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sassuolo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Livingston</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>St Mirren</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>West Ham</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Nottm Forest</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Rangers</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Aberdeen</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
